--- a/analysis/post_gemini_data/Participant130/task_hard.xlsx
+++ b/analysis/post_gemini_data/Participant130/task_hard.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -434,242 +422,238 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
         <is>
           <t>arg</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>arg1</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>arg2</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>arg3</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>arg4</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>arg5</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>arg6</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>assign1</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>conditionalbody</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>conditionalbody1</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>conditionalstatemnet2</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>conditionalstatment</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>external</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>external2</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>extrenal3</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>gemini</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>index</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>literal</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>loop1</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>loop2</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>loopbody</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>loopbody2</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>methocall8</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>methoccall6</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>methodca;ll7</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>methodcall</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>methodcall2</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>methodcall3</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>methodcall4</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>methoddec</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>parameter</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>paramter2</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>vairable1</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>vairavle1</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>vairbals2</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AM1" t="inlineStr">
         <is>
           <t>vairbla3</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AN1" t="inlineStr">
         <is>
           <t>var10</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AO1" t="inlineStr">
         <is>
           <t>var3</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>var4</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>var5</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>var6</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>var8</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>variable</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>variable5</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
         <is>
           <t>variable7</t>
         </is>
@@ -736,39 +720,27 @@
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="n">
-        <v>13</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>20</v>
-      </c>
-      <c r="N3" t="n">
-        <v>22</v>
-      </c>
-      <c r="O3" t="n">
         <v>0</v>
       </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
@@ -776,81 +748,53 @@
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>21</v>
-      </c>
-      <c r="X3" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>21</v>
-      </c>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AH3" t="inlineStr"/>
       <c r="AI3" t="n">
-        <v>48</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>1</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
       <c r="AM3" t="inlineStr"/>
       <c r="AN3" t="inlineStr"/>
-      <c r="AO3" t="n">
-        <v>8</v>
-      </c>
+      <c r="AO3" t="inlineStr"/>
       <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="n">
-        <v>7</v>
-      </c>
+      <c r="AQ3" t="inlineStr"/>
       <c r="AR3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AS3" t="inlineStr"/>
       <c r="AT3" t="inlineStr"/>
-      <c r="AU3" t="n">
-        <v>2</v>
-      </c>
+      <c r="AU3" t="inlineStr"/>
       <c r="AV3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -860,39 +804,27 @@
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="n">
-        <v>20</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>248</v>
+        <v>6</v>
       </c>
       <c r="K4" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="L4" t="n">
-        <v>130</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>39</v>
-      </c>
-      <c r="N4" t="n">
-        <v>33</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="n">
@@ -900,81 +832,53 @@
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="U4" t="n">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="V4" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="W4" t="n">
-        <v>84</v>
-      </c>
-      <c r="X4" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>35</v>
-      </c>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="n">
         <v>1</v>
       </c>
       <c r="AD4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>7</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="n">
-        <v>31</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>12</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AH4" t="inlineStr"/>
       <c r="AI4" t="n">
-        <v>223</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>20</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>2</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
       <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="inlineStr"/>
-      <c r="AO4" t="n">
-        <v>10</v>
-      </c>
+      <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="n">
-        <v>8</v>
-      </c>
+      <c r="AQ4" t="inlineStr"/>
       <c r="AR4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AS4" t="n">
         <v>2</v>
       </c>
+      <c r="AS4" t="inlineStr"/>
       <c r="AT4" t="inlineStr"/>
-      <c r="AU4" t="n">
-        <v>3</v>
-      </c>
+      <c r="AU4" t="inlineStr"/>
       <c r="AV4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -984,121 +888,81 @@
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="n">
-        <v>884.3099999999999</v>
-      </c>
-      <c r="D5" t="n">
-        <v>567.3</v>
-      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="n">
-        <v>83.44</v>
-      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="n">
-        <v>9201.51</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>88156.2</v>
+        <v>1919.32</v>
       </c>
       <c r="K5" t="n">
-        <v>9075.84</v>
+        <v>1185.17</v>
       </c>
       <c r="L5" t="n">
-        <v>44600.34</v>
+        <v>1602.32</v>
       </c>
       <c r="M5" t="n">
-        <v>16935.12</v>
-      </c>
-      <c r="N5" t="n">
-        <v>13605.95</v>
-      </c>
-      <c r="O5" t="n">
-        <v>300.3</v>
-      </c>
+        <v>1185.17</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="n">
-        <v>110688.59</v>
+        <v>110688.6</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="n">
-        <v>9193.700000000001</v>
+        <v>217.51</v>
       </c>
       <c r="U5" t="n">
-        <v>15911.19</v>
+        <v>233.61</v>
       </c>
       <c r="V5" t="n">
-        <v>6022.63</v>
+        <v>817.51</v>
       </c>
       <c r="W5" t="n">
-        <v>30674.6</v>
-      </c>
-      <c r="X5" t="n">
-        <v>2586.08</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>1268.16</v>
-      </c>
+        <v>1185.17</v>
+      </c>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="n">
-        <v>300.3</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>15785.33</v>
-      </c>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="n">
-        <v>267.14</v>
+        <v>233.61</v>
       </c>
       <c r="AD5" t="n">
-        <v>10143.46</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>1017.7</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>3253.38</v>
-      </c>
+        <v>1035.02</v>
+      </c>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="n">
-        <v>15290.32</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>6199.35</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="AH5" t="inlineStr"/>
       <c r="AI5" t="n">
-        <v>81012.67999999999</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>9301.48</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>9943.450000000001</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>684.11</v>
-      </c>
+        <v>61344.95</v>
+      </c>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
       <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="inlineStr"/>
-      <c r="AO5" t="n">
-        <v>3246.21</v>
-      </c>
+      <c r="AO5" t="inlineStr"/>
       <c r="AP5" t="inlineStr"/>
-      <c r="AQ5" t="n">
-        <v>2285.67</v>
-      </c>
+      <c r="AQ5" t="inlineStr"/>
       <c r="AR5" t="n">
-        <v>8642.34</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>817.52</v>
-      </c>
+        <v>1035.02</v>
+      </c>
+      <c r="AS5" t="inlineStr"/>
       <c r="AT5" t="inlineStr"/>
-      <c r="AU5" t="n">
-        <v>1101.19</v>
-      </c>
+      <c r="AU5" t="inlineStr"/>
       <c r="AV5" t="n">
-        <v>2185.18</v>
+        <v>817.51</v>
       </c>
     </row>
     <row r="6">
@@ -1108,39 +972,27 @@
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.17</v>
-      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="n">
-        <v>0.02</v>
-      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="n">
-        <v>2.76</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>26.4</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>2.72</v>
+        <v>0.43</v>
       </c>
       <c r="L6" t="n">
-        <v>13.36</v>
+        <v>0.58</v>
       </c>
       <c r="M6" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="N6" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.09</v>
-      </c>
+        <v>0.43</v>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
@@ -1148,81 +1000,53 @@
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="n">
-        <v>2.75</v>
+        <v>0.08</v>
       </c>
       <c r="U6" t="n">
-        <v>4.77</v>
+        <v>0.08</v>
       </c>
       <c r="V6" t="n">
-        <v>1.8</v>
+        <v>0.3</v>
       </c>
       <c r="W6" t="n">
-        <v>9.19</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0.38</v>
-      </c>
+        <v>0.43</v>
+      </c>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>2.58</v>
-      </c>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="n">
         <v>0.08</v>
       </c>
       <c r="AD6" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0.97</v>
-      </c>
+        <v>0.37</v>
+      </c>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>1.86</v>
-      </c>
+        <v>0.11</v>
+      </c>
+      <c r="AH6" t="inlineStr"/>
       <c r="AI6" t="n">
-        <v>24.26</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>0.2</v>
-      </c>
+        <v>22.14</v>
+      </c>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
       <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr"/>
-      <c r="AO6" t="n">
-        <v>0.97</v>
-      </c>
+      <c r="AO6" t="inlineStr"/>
       <c r="AP6" t="inlineStr"/>
-      <c r="AQ6" t="n">
-        <v>0.68</v>
-      </c>
+      <c r="AQ6" t="inlineStr"/>
       <c r="AR6" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>0.24</v>
-      </c>
+        <v>0.37</v>
+      </c>
+      <c r="AS6" t="inlineStr"/>
       <c r="AT6" t="inlineStr"/>
-      <c r="AU6" t="n">
-        <v>0.33</v>
-      </c>
+      <c r="AU6" t="inlineStr"/>
       <c r="AV6" t="n">
-        <v>0.65</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="7">
@@ -1232,39 +1056,27 @@
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="n">
-        <v>442.16</v>
-      </c>
-      <c r="D7" t="n">
-        <v>283.65</v>
-      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="n">
-        <v>83.44</v>
-      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="n">
-        <v>460.08</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>355.47</v>
+        <v>319.89</v>
       </c>
       <c r="K7" t="n">
-        <v>412.54</v>
+        <v>395.06</v>
       </c>
       <c r="L7" t="n">
-        <v>343.08</v>
+        <v>320.46</v>
       </c>
       <c r="M7" t="n">
-        <v>434.23</v>
-      </c>
-      <c r="N7" t="n">
-        <v>412.3</v>
-      </c>
-      <c r="O7" t="n">
-        <v>300.3</v>
-      </c>
+        <v>395.06</v>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="n">
@@ -1272,81 +1084,53 @@
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="n">
-        <v>540.8099999999999</v>
+        <v>217.51</v>
       </c>
       <c r="U7" t="n">
-        <v>388.08</v>
+        <v>233.61</v>
       </c>
       <c r="V7" t="n">
-        <v>463.28</v>
+        <v>817.51</v>
       </c>
       <c r="W7" t="n">
-        <v>365.17</v>
-      </c>
-      <c r="X7" t="n">
-        <v>323.26</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>634.08</v>
-      </c>
+        <v>395.06</v>
+      </c>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="n">
-        <v>300.3</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>451.01</v>
-      </c>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="n">
-        <v>267.14</v>
+        <v>233.61</v>
       </c>
       <c r="AD7" t="n">
-        <v>483.02</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>339.23</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>464.77</v>
-      </c>
+        <v>517.51</v>
+      </c>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="n">
-        <v>493.24</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>516.61</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="AH7" t="inlineStr"/>
       <c r="AI7" t="n">
-        <v>363.29</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>465.07</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>523.34</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>342.05</v>
-      </c>
+        <v>299.24</v>
+      </c>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr"/>
-      <c r="AO7" t="n">
-        <v>324.62</v>
-      </c>
+      <c r="AO7" t="inlineStr"/>
       <c r="AP7" t="inlineStr"/>
-      <c r="AQ7" t="n">
-        <v>285.71</v>
-      </c>
+      <c r="AQ7" t="inlineStr"/>
       <c r="AR7" t="n">
-        <v>576.16</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>408.76</v>
-      </c>
+        <v>517.51</v>
+      </c>
+      <c r="AS7" t="inlineStr"/>
       <c r="AT7" t="inlineStr"/>
-      <c r="AU7" t="n">
-        <v>367.06</v>
-      </c>
+      <c r="AU7" t="inlineStr"/>
       <c r="AV7" t="n">
-        <v>364.2</v>
+        <v>817.51</v>
       </c>
     </row>
     <row r="8">
@@ -1356,39 +1140,27 @@
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="n">
-        <v>150.2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>300.3</v>
-      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
-        <v>83.44</v>
-      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="n">
-        <v>734.12</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>66.73999999999999</v>
+        <v>183.54</v>
       </c>
       <c r="K8" t="n">
-        <v>166.86</v>
+        <v>150.14</v>
       </c>
       <c r="L8" t="n">
-        <v>734.12</v>
+        <v>183.54</v>
       </c>
       <c r="M8" t="n">
-        <v>617.3</v>
-      </c>
-      <c r="N8" t="n">
-        <v>734.12</v>
-      </c>
-      <c r="O8" t="n">
-        <v>300.3</v>
-      </c>
+        <v>150.14</v>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="n">
@@ -1396,81 +1168,53 @@
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="n">
-        <v>617.3</v>
+        <v>217.51</v>
       </c>
       <c r="U8" t="n">
-        <v>734.12</v>
+        <v>233.61</v>
       </c>
       <c r="V8" t="n">
-        <v>316.6</v>
+        <v>817.51</v>
       </c>
       <c r="W8" t="n">
-        <v>617.3</v>
-      </c>
-      <c r="X8" t="n">
-        <v>283.66</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>867.55</v>
-      </c>
+        <v>150.14</v>
+      </c>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="n">
-        <v>300.3</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>150.18</v>
-      </c>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="n">
-        <v>267.14</v>
+        <v>233.61</v>
       </c>
       <c r="AD8" t="n">
-        <v>550.62</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>283.66</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>400.37</v>
-      </c>
+        <v>217.51</v>
+      </c>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="n">
-        <v>233.56</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>266.93</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="AH8" t="inlineStr"/>
       <c r="AI8" t="n">
-        <v>216.85</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>734.12</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>734.12</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>233.56</v>
-      </c>
+        <v>158.52</v>
+      </c>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
       <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr"/>
-      <c r="AO8" t="n">
-        <v>617.3</v>
-      </c>
+      <c r="AO8" t="inlineStr"/>
       <c r="AP8" t="inlineStr"/>
-      <c r="AQ8" t="n">
-        <v>650.7</v>
-      </c>
+      <c r="AQ8" t="inlineStr"/>
       <c r="AR8" t="n">
-        <v>550.62</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>283.66</v>
-      </c>
+        <v>217.51</v>
+      </c>
+      <c r="AS8" t="inlineStr"/>
       <c r="AT8" t="inlineStr"/>
-      <c r="AU8" t="n">
-        <v>300.3</v>
-      </c>
+      <c r="AU8" t="inlineStr"/>
       <c r="AV8" t="n">
-        <v>316.6</v>
+        <v>817.51</v>
       </c>
     </row>
   </sheetData>
